--- a/runs/openai-gsm8k/2024-10-08_20-00-58/llama3_gsm8k_balanced.xlsx
+++ b/runs/openai-gsm8k/2024-10-08_20-00-58/llama3_gsm8k_balanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anumafzal/PycharmProjects/ToTpred/runs/openai-gsm8k/2024-10-08_20-00-58/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4EFB76-FEDA-D745-AB29-E77C4402B7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD9995E-E6E8-9F43-8437-1EBD2F29B1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8328,7 +8328,7 @@
   <dimension ref="A1:F381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
